--- a/skolotaji.xlsx
+++ b/skolotaji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vilis\vhbbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{392D6CAC-3A5D-460E-976E-B4D15113D903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67D89C8-081F-4C53-8D6D-5BFEA7005956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{AE0A6275-95C8-4A3A-ACCE-BC0AEE181781}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE0A6275-95C8-4A3A-ACCE-BC0AEE181781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Latviešu valoda</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Valdmane Marta</t>
+  </si>
+  <si>
+    <t>Anna Jansone</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +913,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
       <c r="H13" t="s">
         <v>71</v>
       </c>
